--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.40927967474529</v>
+        <v>30.95601360621536</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1689999103546143</v>
+        <v>0.1749999523162842</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.40927967474529</v>
+        <v>30.95601360621536</v>
       </c>
     </row>
     <row r="7">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32.46902814888772</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.32864898449875</v>
+        <v>33.15868643584628</v>
       </c>
     </row>
     <row r="5">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.43528232449542</v>
+        <v>34.77463816779864</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.93612771406958</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000104</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>191.2280000000211</v>
+        <v>118.4</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>56.24800000000747</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>124.7930000000131</v>
+        <v>182.6</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0460000000508</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>191.2280000000428</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>192.0460000000967</v>
+        <v>182.6</v>
       </c>
     </row>
   </sheetData>
